--- a/RawData/Timing.xlsx
+++ b/RawData/Timing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\OneDrive\Programming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\King.Service\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D15:D16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,53 +509,53 @@
         <v>32</v>
       </c>
       <c r="D3" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="F3" s="7">
         <f>D3/B3</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1">
         <f>E3/A3</f>
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="H3" s="5">
         <f>(A3*C3)/G3</f>
-        <v>0.17777777777777778</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="I3" s="5">
         <f>(B3*C3)/F3</f>
-        <v>8.5333333333333332</v>
+        <v>12.8</v>
       </c>
       <c r="J3" s="1">
         <f>60/G3</f>
-        <v>0.33333333333333331</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K3" s="1">
         <f>60/F3</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:M5" si="0">(J3*60*24*29.5)</f>
-        <v>14160</v>
+        <v>56640</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>339840</v>
+        <v>509760</v>
       </c>
       <c r="N3" s="3">
-        <v>5.0000000000000001E-4</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="O3" s="2">
-        <f>(L3/10000)*N3</f>
-        <v>7.0799999999999997E-4</v>
+        <f>(L3/100000)*N3</f>
+        <v>2.0390400000000002E-3</v>
       </c>
       <c r="P3" s="2">
-        <f>(M3/10000)*O3</f>
-        <v>2.4060672000000002E-2</v>
+        <f>(M3/100000)*O3</f>
+        <v>1.0394210304000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="6">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F4" s="7">
         <f t="shared" ref="F4:F5" si="1">D4/B4</f>
@@ -580,11 +580,11 @@
       </c>
       <c r="G4" s="1">
         <f t="shared" ref="G4:G5" si="2">E4/A4</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="H4" s="5">
         <f>(A4*C4)/G4</f>
-        <v>0.53333333333333333</v>
+        <v>2.1333333333333333</v>
       </c>
       <c r="I4" s="5">
         <f>(B4*C4)/F4</f>
@@ -592,7 +592,7 @@
       </c>
       <c r="J4" s="1">
         <f>60/G4</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K4" s="1">
         <f>60/F4</f>
@@ -600,22 +600,22 @@
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>42480</v>
+        <v>169920</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
         <v>2039040</v>
       </c>
       <c r="N4" s="3">
-        <v>5.0000000000000001E-4</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" ref="O4:P5" si="3">(L4/10000)*N4</f>
-        <v>2.124E-3</v>
+        <f t="shared" ref="O4:O5" si="3">(L4/100000)*N4</f>
+        <v>6.1171200000000002E-3</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.43309209599999998</v>
+        <f t="shared" ref="P4:P5" si="4">(M4/100000)*O4</f>
+        <v>0.124730523648</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F5" s="7">
         <f t="shared" si="1"/>
@@ -640,11 +640,11 @@
       </c>
       <c r="G5" s="1">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="H5" s="5">
         <f>(A5*C5)/G5</f>
-        <v>8.5333333333333332</v>
+        <v>25.6</v>
       </c>
       <c r="I5" s="5">
         <f>(B5*C5)/F5</f>
@@ -652,7 +652,7 @@
       </c>
       <c r="J5" s="1">
         <f>60/G5</f>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="K5" s="1">
         <f>60/F5</f>
@@ -660,22 +660,22 @@
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>339840</v>
+        <v>1019520</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
         <v>12744000</v>
       </c>
       <c r="N5" s="3">
-        <v>5.0000000000000001E-4</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" si="3"/>
-        <v>1.6992E-2</v>
+        <v>3.6702720000000001E-2</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" si="3"/>
-        <v>21.654604800000001</v>
+        <f t="shared" si="4"/>
+        <v>4.6773946367999999</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -700,53 +700,53 @@
         <v>32</v>
       </c>
       <c r="D7" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7" s="6">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="F7" s="7">
         <f>D7/B7</f>
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
         <f>E7/A7</f>
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="H7" s="5">
         <f>(A7*C7)/G7</f>
-        <v>0.17777777777777778</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="I7" s="5">
         <f>(B7*C7)/F7</f>
-        <v>8.5333333333333332</v>
+        <v>12.8</v>
       </c>
       <c r="J7" s="1">
         <f>60/G7</f>
-        <v>0.33333333333333331</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K7" s="1">
         <f>60/F7</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:M9" si="4">(J7*60*24*29.5)</f>
-        <v>14160</v>
+        <f t="shared" ref="L7:M9" si="5">(J7*60*24*29.5)</f>
+        <v>56640</v>
       </c>
       <c r="M7">
-        <f t="shared" si="4"/>
-        <v>339840</v>
+        <f t="shared" si="5"/>
+        <v>509760</v>
       </c>
       <c r="N7" s="3">
         <v>0.05</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" ref="O7:P9" si="5">(L7/10000)*0.05</f>
-        <v>7.0800000000000002E-2</v>
+        <f>(L7/1000000)*0.05</f>
+        <v>2.8320000000000003E-3</v>
       </c>
       <c r="P7" s="2">
-        <f t="shared" si="5"/>
-        <v>1.6992000000000003</v>
+        <f>(M7/1000000)*0.05</f>
+        <v>2.5488E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="6">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" ref="F8:F9" si="6">D8/B8</f>
@@ -771,11 +771,11 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" ref="G8:G9" si="7">E8/A8</f>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="H8" s="5">
         <f>(A8*C8)/G8</f>
-        <v>0.53333333333333333</v>
+        <v>2.1333333333333333</v>
       </c>
       <c r="I8" s="5">
         <f>(B8*C8)/F8</f>
@@ -783,30 +783,30 @@
       </c>
       <c r="J8" s="1">
         <f>60/G8</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K8" s="1">
         <f>60/F8</f>
         <v>48</v>
       </c>
       <c r="L8">
-        <f t="shared" si="4"/>
-        <v>42480</v>
+        <f t="shared" si="5"/>
+        <v>169920</v>
       </c>
       <c r="M8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2039040</v>
       </c>
       <c r="N8" s="3">
         <v>0.05</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="5"/>
-        <v>0.21240000000000003</v>
+        <f t="shared" ref="O8:O9" si="8">(L8/1000000)*0.05</f>
+        <v>8.4960000000000001E-3</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" si="5"/>
-        <v>10.1952</v>
+        <f t="shared" ref="P8:P9" si="9">(M8/1000000)*0.05</f>
+        <v>0.101952</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -823,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="6"/>
@@ -831,11 +831,11 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" si="7"/>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="H9" s="5">
         <f>(A9*C9)/G9</f>
-        <v>8.5333333333333332</v>
+        <v>25.6</v>
       </c>
       <c r="I9" s="5">
         <f>(B9*C9)/F9</f>
@@ -843,30 +843,30 @@
       </c>
       <c r="J9" s="1">
         <f>60/G9</f>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="K9" s="1">
         <f>60/F9</f>
         <v>300</v>
       </c>
       <c r="L9">
-        <f t="shared" si="4"/>
-        <v>339840</v>
+        <f t="shared" si="5"/>
+        <v>1019520</v>
       </c>
       <c r="M9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12744000</v>
       </c>
       <c r="N9" s="3">
         <v>0.05</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="5"/>
-        <v>1.6992000000000003</v>
+        <f t="shared" si="8"/>
+        <v>5.0976E-2</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="5"/>
-        <v>63.720000000000006</v>
+        <f t="shared" si="9"/>
+        <v>0.63719999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
